--- a/backend/docs/archive/14-27/14-27_25.xlsx
+++ b/backend/docs/archive/14-27/14-27_25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -49,12 +49,18 @@
     <t>1.</t>
   </si>
   <si>
+    <t>Бессольцев М.А.Начальник отдела АСУ</t>
+  </si>
+  <si>
     <t>2.</t>
   </si>
   <si>
     <t>3.</t>
   </si>
   <si>
+    <t>Корсунов Л.С.  Зам.нач. отдела АСУ</t>
+  </si>
+  <si>
     <t>4.</t>
   </si>
   <si>
@@ -79,10 +85,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Принтер Canon Test Cannon1</t>
-  </si>
-  <si>
-    <t>asd1313</t>
+    <t>ПК HP Компьютер в сборе</t>
+  </si>
+  <si>
+    <t>dfggd</t>
   </si>
   <si>
     <t>шт</t>
@@ -109,10 +115,7 @@
     <t>Жесткий диск Canon WD BLUE 2563</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>1123123</t>
+    <t>dsad</t>
   </si>
   <si>
     <t>ФИО и подписи, ответственных за установку материальной ценности:</t>
@@ -173,6 +176,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -209,17 +223,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,22 +259,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -688,100 +693,116 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>11</v>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>13</v>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" ht="36" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>20</v>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -793,233 +814,193 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" ht="39.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>2</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11">
+      <c r="B30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>1</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="38" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>2</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="48">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
@@ -1030,10 +1011,8 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
@@ -1046,19 +1025,18 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B38:C38"/>
@@ -1071,10 +1049,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
